--- a/Qreport_PDF/2022Q4/2022Q4.xlsx
+++ b/Qreport_PDF/2022Q4/2022Q4.xlsx
@@ -581,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z40"/>
+  <dimension ref="A1:X40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
       <selection activeCell="S1" sqref="S1:X1"/>
@@ -835,9 +835,7 @@
       <c r="U3" s="3" t="inlineStr"/>
       <c r="V3" s="3" t="inlineStr"/>
       <c r="W3" s="3" t="inlineStr"/>
-      <c r="X3" s="3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="n">
+      <c r="X3" s="3" t="n">
         <v>230147.11</v>
       </c>
     </row>
@@ -905,9 +903,7 @@
       <c r="U4" s="3" t="inlineStr"/>
       <c r="V4" s="3" t="inlineStr"/>
       <c r="W4" s="3" t="inlineStr"/>
-      <c r="X4" s="3" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="n">
+      <c r="X4" s="3" t="n">
         <v>8999124.939999999</v>
       </c>
     </row>
@@ -977,9 +973,7 @@
       <c r="U5" s="3" t="inlineStr"/>
       <c r="V5" s="3" t="inlineStr"/>
       <c r="W5" s="3" t="inlineStr"/>
-      <c r="X5" s="3" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="n">
+      <c r="X5" s="3" t="n">
         <v>59196.05</v>
       </c>
     </row>
@@ -1049,9 +1043,7 @@
       <c r="U6" s="3" t="inlineStr"/>
       <c r="V6" s="3" t="inlineStr"/>
       <c r="W6" s="3" t="inlineStr"/>
-      <c r="X6" s="3" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="n">
+      <c r="X6" s="3" t="n">
         <v>41059829.05</v>
       </c>
     </row>
@@ -1119,9 +1111,7 @@
       <c r="U7" s="3" t="inlineStr"/>
       <c r="V7" s="3" t="inlineStr"/>
       <c r="W7" s="3" t="inlineStr"/>
-      <c r="X7" s="3" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="n">
+      <c r="X7" s="3" t="n">
         <v>1645472.86</v>
       </c>
     </row>
@@ -1189,9 +1179,7 @@
       <c r="U8" s="3" t="inlineStr"/>
       <c r="V8" s="3" t="inlineStr"/>
       <c r="W8" s="3" t="inlineStr"/>
-      <c r="X8" s="3" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="n">
+      <c r="X8" s="3" t="n">
         <v>9638165.27</v>
       </c>
     </row>
@@ -1261,9 +1249,7 @@
         <v>1250000</v>
       </c>
       <c r="W9" s="3" t="inlineStr"/>
-      <c r="X9" s="3" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="n">
+      <c r="X9" s="3" t="n">
         <v>5333493.63</v>
       </c>
     </row>
@@ -1335,9 +1321,7 @@
       <c r="W10" s="3" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="X10" s="3" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="n">
+      <c r="X10" s="3" t="n">
         <v>75373863.78</v>
       </c>
     </row>
@@ -1407,9 +1391,7 @@
       <c r="W11" s="3" t="n">
         <v>0.23</v>
       </c>
-      <c r="X11" s="3" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="n">
+      <c r="X11" s="3" t="n">
         <v>894668.08</v>
       </c>
     </row>
@@ -1481,9 +1463,7 @@
       <c r="W12" s="3" t="n">
         <v>0.02</v>
       </c>
-      <c r="X12" s="3" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="n">
+      <c r="X12" s="3" t="n">
         <v>996767.95</v>
       </c>
     </row>
@@ -1549,9 +1529,7 @@
       <c r="U13" s="3" t="inlineStr"/>
       <c r="V13" s="3" t="inlineStr"/>
       <c r="W13" s="3" t="inlineStr"/>
-      <c r="X13" s="3" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="n">
+      <c r="X13" s="3" t="n">
         <v>2864122.63</v>
       </c>
     </row>
@@ -1619,9 +1597,7 @@
       <c r="U14" s="3" t="inlineStr"/>
       <c r="V14" s="3" t="inlineStr"/>
       <c r="W14" s="3" t="inlineStr"/>
-      <c r="X14" s="3" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="n">
+      <c r="X14" s="3" t="n">
         <v>3732622.03</v>
       </c>
     </row>
@@ -1689,9 +1665,7 @@
       <c r="U15" s="3" t="inlineStr"/>
       <c r="V15" s="3" t="inlineStr"/>
       <c r="W15" s="3" t="inlineStr"/>
-      <c r="X15" s="3" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="n">
+      <c r="X15" s="3" t="n">
         <v>6269562.21</v>
       </c>
     </row>
@@ -1759,9 +1733,7 @@
       <c r="U16" s="3" t="inlineStr"/>
       <c r="V16" s="3" t="inlineStr"/>
       <c r="W16" s="3" t="inlineStr"/>
-      <c r="X16" s="3" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="n">
+      <c r="X16" s="3" t="n">
         <v>6174552.6</v>
       </c>
     </row>
@@ -1827,9 +1799,7 @@
       <c r="U17" s="3" t="inlineStr"/>
       <c r="V17" s="3" t="inlineStr"/>
       <c r="W17" s="3" t="inlineStr"/>
-      <c r="X17" s="3" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="n">
+      <c r="X17" s="3" t="n">
         <v>3711930.23</v>
       </c>
     </row>
@@ -1899,9 +1869,7 @@
       <c r="U18" s="3" t="inlineStr"/>
       <c r="V18" s="3" t="inlineStr"/>
       <c r="W18" s="3" t="inlineStr"/>
-      <c r="X18" s="3" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="n">
+      <c r="X18" s="3" t="n">
         <v>17591872.56</v>
       </c>
     </row>
@@ -1973,9 +1941,7 @@
       <c r="W19" s="3" t="n">
         <v>1.6</v>
       </c>
-      <c r="X19" s="3" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="n">
+      <c r="X19" s="3" t="n">
         <v>3811608.01</v>
       </c>
     </row>
@@ -2043,9 +2009,7 @@
       <c r="U20" s="3" t="inlineStr"/>
       <c r="V20" s="3" t="inlineStr"/>
       <c r="W20" s="3" t="inlineStr"/>
-      <c r="X20" s="3" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="n">
+      <c r="X20" s="3" t="n">
         <v>4486049.13</v>
       </c>
     </row>
@@ -2113,9 +2077,7 @@
       <c r="U21" s="3" t="inlineStr"/>
       <c r="V21" s="3" t="inlineStr"/>
       <c r="W21" s="3" t="inlineStr"/>
-      <c r="X21" s="3" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="n">
+      <c r="X21" s="3" t="n">
         <v>6624898.72</v>
       </c>
     </row>
@@ -2185,9 +2147,7 @@
       <c r="U22" s="3" t="inlineStr"/>
       <c r="V22" s="3" t="inlineStr"/>
       <c r="W22" s="3" t="inlineStr"/>
-      <c r="X22" s="3" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="n">
+      <c r="X22" s="3" t="n">
         <v>2300770.05</v>
       </c>
     </row>
